--- a/docs/extension-topic-dor.xlsx
+++ b/docs/extension-topic-dor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
   <si>
     <t>Path</t>
   </si>
@@ -247,7 +247,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/v2-0532</t>
+    <t>The determination of reportability generated by the PHA system (or its intermediary).</t>
+  </si>
+  <si>
+    <t>http://fhir.hl7.org/us/ecr/ValueSet/dor</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -431,8 +434,8 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="130.640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="37.0546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="81.97265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="38.58203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
@@ -1023,10 +1026,10 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>38</v>
@@ -1044,7 +1047,7 @@
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>39</v>
